--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1465,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="12.75">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="12.75">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="12.75">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="12.75">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="12.75">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1591,46 +1591,58 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="12.75">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="27" t="s">
+        <v>322</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="12.75">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="D12" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="D13" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="27" t="s">
+        <v>322</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="12.75">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="12.75">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="12.75">
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="12.75">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1672,7 +1684,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="12.75">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="12.75">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="12.75">
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="12.75">
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="12.75">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="12.75">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="12.75">
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" ht="12.75">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" ht="12.75">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" ht="12.75">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" ht="12.75">
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" ht="12.75">
       <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" ht="12.75">
       <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" ht="12.75">
       <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" ht="12.75">
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
@@ -1813,13 +1825,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" ht="12.75">
       <c r="B36" s="6"/>
       <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" ht="12.75">
       <c r="B37" s="8" t="s">
         <v>11</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" ht="12.75">
       <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" ht="12.75">
       <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" ht="12.75">
       <c r="B40" s="8" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" ht="12.75">
       <c r="B41" s="8" t="s">
         <v>11</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" ht="12.75">
       <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" ht="12.75">
       <c r="B43" s="8" t="s">
         <v>48</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" ht="12.75">
       <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" ht="12.75">
       <c r="B45" s="8" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" ht="12.75">
       <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
@@ -1927,7 +1939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" ht="12.75">
       <c r="B47" s="8" t="s">
         <v>48</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" ht="12.75">
       <c r="B48" s="8" t="s">
         <v>48</v>
       </c>
@@ -1946,7 +1958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" ht="12.75">
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" ht="12.75">
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="12.75">
       <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" ht="12.75">
       <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" ht="12.75">
       <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" ht="12.75">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -2003,7 +2015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" ht="12.75">
       <c r="B55" s="8" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" ht="12.75">
       <c r="B56" s="8" t="s">
         <v>38</v>
       </c>
@@ -2022,13 +2034,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" ht="12.75">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" ht="12.75">
       <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" ht="12.75">
       <c r="B60" s="8" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" ht="12.75">
       <c r="B61" s="8" t="s">
         <v>22</v>
       </c>
@@ -2053,7 +2065,7 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" ht="12.75">
       <c r="B62" s="8" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" ht="12.75">
       <c r="B63" s="8" t="s">
         <v>22</v>
       </c>
@@ -2075,18 +2087,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" ht="12.75">
       <c r="H64" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" ht="12.75">
       <c r="B65" s="6"/>
       <c r="C65" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" ht="12.75">
       <c r="B66" s="8" t="s">
         <v>11</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" ht="12.75">
       <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" ht="12.75">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" ht="12.75">
       <c r="B69" s="8" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" ht="12.75">
       <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" ht="12.75">
       <c r="B71" s="8" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" ht="12.75">
       <c r="B72" s="8" t="s">
         <v>11</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" ht="12.75">
       <c r="B73" s="8" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" ht="12.75">
       <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" ht="12.75">
       <c r="B75" s="8" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" ht="12.75">
       <c r="B76" s="8" t="s">
         <v>22</v>
       </c>
@@ -2183,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" ht="12.75">
       <c r="B77" s="8" t="s">
         <v>22</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" ht="12.75">
       <c r="B79" s="6"/>
       <c r="C79" s="8" t="s">
         <v>82</v>
@@ -2200,7 +2212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" ht="15">
       <c r="B80" s="8" t="s">
         <v>11</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" ht="12.75">
       <c r="B81" s="8" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" ht="15">
       <c r="B82" s="8" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" ht="12.75">
       <c r="B83" s="8" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" ht="15">
       <c r="B84" s="8" t="s">
         <v>22</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" ht="15">
       <c r="B85" s="8" t="s">
         <v>22</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" ht="12.75">
       <c r="B86" s="8" t="s">
         <v>22</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" ht="15">
       <c r="B87" s="8" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" ht="15">
       <c r="B88" s="8" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" ht="12.75">
       <c r="B89" s="8" t="s">
         <v>38</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" ht="12.75">
       <c r="B90" s="8" t="s">
         <v>38</v>
       </c>
@@ -2306,7 +2318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" ht="12.75">
       <c r="B91" s="8" t="s">
         <v>38</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" ht="15">
       <c r="B92" s="8" t="s">
         <v>38</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" ht="15">
       <c r="B93" s="8" t="s">
         <v>38</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" ht="15">
       <c r="B94" s="8" t="s">
         <v>38</v>
       </c>
@@ -2347,13 +2359,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" ht="12.75">
       <c r="B96" s="6"/>
       <c r="C96" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" ht="12.75">
       <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" ht="12.75">
       <c r="B98" s="8" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" ht="12.75">
       <c r="B99" s="8" t="s">
         <v>11</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" ht="12.75">
       <c r="B100" s="8" t="s">
         <v>11</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" ht="12.75">
       <c r="B101" s="8" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" ht="12.75">
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" ht="12.75">
       <c r="B103" s="8" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" ht="12.75">
       <c r="B104" s="8" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2445,7 @@
       </c>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" ht="12.75">
       <c r="B105" s="8" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" ht="12.75">
       <c r="B106" s="8" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" ht="12.75">
       <c r="B107" s="8" t="s">
         <v>11</v>
       </c>
@@ -2466,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" ht="12.75">
       <c r="B108" s="8" t="s">
         <v>22</v>
       </c>
@@ -2474,7 +2486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" ht="12.75">
       <c r="B109" s="8" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" ht="12.75">
       <c r="B110" s="8" t="s">
         <v>22</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" ht="12.75">
       <c r="B111" s="8" t="s">
         <v>22</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" ht="12.75">
       <c r="B112" s="8" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" ht="12.75">
       <c r="B113" s="8" t="s">
         <v>22</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" ht="12.75">
       <c r="B114" s="8" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" ht="12.75">
       <c r="B115" s="8" t="s">
         <v>22</v>
       </c>
@@ -2539,7 +2551,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" ht="12.75">
       <c r="B116" s="8" t="s">
         <v>22</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" ht="12.75">
       <c r="B117" s="8" t="s">
         <v>22</v>
       </c>
@@ -2555,7 +2567,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" ht="12.75">
       <c r="B118" s="8" t="s">
         <v>38</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" ht="12.75">
       <c r="B119" s="8" t="s">
         <v>38</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" ht="12.75">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="2:9" ht="12.75">
       <c r="B121" s="8" t="s">
         <v>38</v>
       </c>
@@ -2593,7 +2605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" ht="12.75">
       <c r="B122" s="8" t="s">
         <v>38</v>
       </c>
@@ -2601,12 +2613,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" ht="12.75">
       <c r="C124" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" ht="12.75">
       <c r="B125" s="8" t="s">
         <v>11</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" ht="12.75">
       <c r="B126" s="8" t="s">
         <v>11</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" ht="12.75">
       <c r="B127" s="8" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" ht="12.75">
       <c r="B128" s="8" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2659,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" ht="12.75">
       <c r="B129" s="8" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" ht="12.75">
       <c r="B130" s="8" t="s">
         <v>11</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:9" ht="12.75">
       <c r="B131" s="8" t="s">
         <v>22</v>
       </c>
@@ -2674,7 +2686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:9" ht="12.75">
       <c r="B132" s="8" t="s">
         <v>22</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" ht="12.75">
       <c r="B133" s="8" t="s">
         <v>22</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" ht="12.75">
       <c r="B134" s="8" t="s">
         <v>22</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" ht="12.75">
       <c r="B135" s="8" t="s">
         <v>22</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:9" ht="12.75">
       <c r="B136" s="8" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:9" ht="12.75">
       <c r="B137" s="8" t="s">
         <v>22</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" ht="12.75">
       <c r="B138" s="8" t="s">
         <v>22</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:9" ht="12.75">
       <c r="B139" s="8" t="s">
         <v>38</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:9" ht="12.75">
       <c r="B140" s="8" t="s">
         <v>38</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:9" ht="12.75">
       <c r="B141" s="8" t="s">
         <v>38</v>
       </c>
@@ -2778,18 +2790,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" ht="12.75">
       <c r="G142" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:9" ht="12.75">
       <c r="B143" s="6"/>
       <c r="C143" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:9" ht="12.75">
       <c r="B144" s="8" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" ht="12.75">
       <c r="B145" s="8" t="s">
         <v>11</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:9" ht="12.75">
       <c r="B146" s="8" t="s">
         <v>11</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:9" ht="12.75">
       <c r="B147" s="8" t="s">
         <v>11</v>
       </c>
@@ -2831,7 +2843,7 @@
       </c>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" ht="12.75">
       <c r="B148" s="8" t="s">
         <v>11</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" ht="12.75">
       <c r="B149" s="8" t="s">
         <v>11</v>
       </c>
@@ -2853,7 +2865,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" ht="12.75">
       <c r="B150" s="8" t="s">
         <v>11</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="2:9" ht="12.75">
       <c r="B151" s="8" t="s">
         <v>11</v>
       </c>
@@ -2869,7 +2881,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:9" ht="12.75">
       <c r="B152" s="8" t="s">
         <v>11</v>
       </c>
@@ -2883,7 +2895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" ht="12.75">
       <c r="B153" s="8" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="2:9" ht="12.75">
       <c r="B154" s="8" t="s">
         <v>11</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" ht="12.75">
       <c r="B155" s="8" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" ht="12.75">
       <c r="B156" s="8" t="s">
         <v>11</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" ht="12.75">
       <c r="B157" s="8" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="2:9" ht="12.75">
       <c r="B158" s="8" t="s">
         <v>11</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="2:9" ht="12.75">
       <c r="B159" s="8" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="2:9" ht="12.75">
       <c r="B160" s="8" t="s">
         <v>11</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="2:9" ht="12.75">
       <c r="B161" s="8" t="s">
         <v>11</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="2:9" ht="12.75">
       <c r="B162" s="8" t="s">
         <v>22</v>
       </c>
@@ -2975,7 +2987,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="2:9" ht="12.75">
       <c r="B163" s="8" t="s">
         <v>22</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" ht="12.75">
       <c r="B164" s="8" t="s">
         <v>22</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" ht="12.75">
       <c r="B165" s="8" t="s">
         <v>22</v>
       </c>
@@ -3002,7 +3014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="2:9" ht="12.75">
       <c r="B166" s="8" t="s">
         <v>22</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" ht="12.75">
       <c r="B167" s="8" t="s">
         <v>22</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" ht="12.75">
       <c r="B168" s="8" t="s">
         <v>22</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" ht="12.75">
       <c r="B169" s="8" t="s">
         <v>22</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="2:9" ht="12.75">
       <c r="B170" s="8" t="s">
         <v>22</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="2:9" ht="12.75">
       <c r="B171" s="8" t="s">
         <v>22</v>
       </c>
@@ -3062,7 +3074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="2:9" ht="12.75">
       <c r="B172" s="8" t="s">
         <v>22</v>
       </c>
@@ -3079,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="2:9" ht="12.75">
       <c r="B173" s="8" t="s">
         <v>22</v>
       </c>
@@ -3090,7 +3102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:9">
+    <row r="174" spans="2:9" ht="12.75">
       <c r="B174" s="8" t="s">
         <v>22</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:9">
+    <row r="175" spans="2:9" ht="12.75">
       <c r="B175" s="8" t="s">
         <v>22</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:9">
+    <row r="176" spans="2:9" ht="12.75">
       <c r="B176" s="8" t="s">
         <v>22</v>
       </c>
@@ -3123,7 +3135,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="2:9" ht="12.75">
       <c r="B177" s="8" t="s">
         <v>22</v>
       </c>
@@ -3134,7 +3146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="2:9" ht="12.75">
       <c r="B178" s="8" t="s">
         <v>22</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="2:9" ht="12.75">
       <c r="B179" s="8" t="s">
         <v>22</v>
       </c>
@@ -3156,7 +3168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="2:9" ht="12.75">
       <c r="B180" s="8" t="s">
         <v>22</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="2:9">
+    <row r="181" spans="2:9" ht="12.75">
       <c r="B181" s="8" t="s">
         <v>22</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="2:9">
+    <row r="182" spans="2:9" ht="12.75">
       <c r="B182" s="8" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="2:9">
+    <row r="183" spans="2:9" ht="12.75">
       <c r="B183" s="8" t="s">
         <v>38</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="2:9">
+    <row r="184" spans="2:9" ht="12.75">
       <c r="B184" s="8" t="s">
         <v>38</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:9">
+    <row r="185" spans="2:9" ht="12.75">
       <c r="B185" s="8" t="s">
         <v>38</v>
       </c>
@@ -3222,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="2:9">
+    <row r="186" spans="2:9" ht="12.75">
       <c r="B186" s="8" t="s">
         <v>38</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:9">
+    <row r="187" spans="2:9" ht="12.75">
       <c r="B187" s="8" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="2:9">
+    <row r="188" spans="2:9" ht="12.75">
       <c r="B188" s="8" t="s">
         <v>38</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="2:9">
+    <row r="189" spans="2:9" ht="12.75">
       <c r="B189" s="8" t="s">
         <v>38</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="2:9">
+    <row r="190" spans="2:9" ht="12.75">
       <c r="B190" s="8" t="s">
         <v>38</v>
       </c>
@@ -3274,7 +3286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="2:9">
+    <row r="191" spans="2:9" ht="12.75">
       <c r="B191" s="8" t="s">
         <v>38</v>
       </c>
@@ -3282,13 +3294,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" ht="12.75">
       <c r="B193" s="6"/>
       <c r="C193" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" ht="12.75">
       <c r="B194" s="8" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" ht="12.75">
       <c r="B195" s="8" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" ht="12.75">
       <c r="B196" s="8" t="s">
         <v>11</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" ht="12.75">
       <c r="B197" s="8" t="s">
         <v>11</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" ht="12.75">
       <c r="B198" s="8" t="s">
         <v>11</v>
       </c>
@@ -3337,7 +3349,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" ht="12.75">
       <c r="B199" s="8" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" ht="12.75">
       <c r="B200" s="8" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3365,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" ht="12.75">
       <c r="B201" s="8" t="s">
         <v>22</v>
       </c>
@@ -3364,7 +3376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" ht="12.75">
       <c r="B202" s="8" t="s">
         <v>22</v>
       </c>
@@ -3375,7 +3387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" ht="12.75">
       <c r="B203" s="8" t="s">
         <v>22</v>
       </c>
@@ -3386,7 +3398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" ht="12.75">
       <c r="B204" s="8" t="s">
         <v>22</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" ht="12.75">
       <c r="B205" s="8" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" ht="12.75">
       <c r="B206" s="8" t="s">
         <v>22</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" ht="12.75">
       <c r="B207" s="8" t="s">
         <v>22</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" ht="12.75">
       <c r="B208" s="8" t="s">
         <v>22</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="2:9">
+    <row r="209" spans="2:9" ht="12.75">
       <c r="B209" s="8" t="s">
         <v>22</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="2:9">
+    <row r="210" spans="2:9" ht="12.75">
       <c r="B210" s="8" t="s">
         <v>22</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="2:9">
+    <row r="211" spans="2:9" ht="12.75">
       <c r="B211" s="8" t="s">
         <v>22</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="2:9">
+    <row r="212" spans="2:9" ht="12.75">
       <c r="B212" s="8" t="s">
         <v>22</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="2:9">
+    <row r="213" spans="2:9" ht="12.75">
       <c r="B213" s="8" t="s">
         <v>22</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="2:9">
+    <row r="214" spans="2:9" ht="12.75">
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="2:9">
+    <row r="215" spans="2:9" ht="12.75">
       <c r="B215" s="8" t="s">
         <v>22</v>
       </c>
@@ -3494,7 +3506,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="2:9">
+    <row r="216" spans="2:9" ht="12.75">
       <c r="B216" s="8" t="s">
         <v>22</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="2:9">
+    <row r="217" spans="2:9" ht="12.75">
       <c r="B217" s="8" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="2:9">
+    <row r="218" spans="2:9" ht="12.75">
       <c r="B218" s="8" t="s">
         <v>22</v>
       </c>
@@ -3527,7 +3539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="2:9">
+    <row r="219" spans="2:9" ht="12.75">
       <c r="B219" s="8" t="s">
         <v>22</v>
       </c>
@@ -3535,7 +3547,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="2:9">
+    <row r="220" spans="2:9" ht="12.75">
       <c r="B220" s="8" t="s">
         <v>22</v>
       </c>
@@ -3543,7 +3555,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="2:9">
+    <row r="221" spans="2:9" ht="12.75">
       <c r="B221" s="8" t="s">
         <v>38</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="2:9">
+    <row r="222" spans="2:9" ht="12.75">
       <c r="B222" s="8" t="s">
         <v>38</v>
       </c>
@@ -3562,7 +3574,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="2:9">
+    <row r="223" spans="2:9" ht="12.75">
       <c r="B223" s="8" t="s">
         <v>38</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="2:9">
+    <row r="224" spans="2:9" ht="12.75">
       <c r="B224" s="8" t="s">
         <v>38</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="2:9">
+    <row r="225" spans="2:9" ht="12.75">
       <c r="B225" s="8" t="s">
         <v>38</v>
       </c>
@@ -3601,7 +3613,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="2:9">
+    <row r="226" spans="2:9" ht="12.75">
       <c r="B226" s="8" t="s">
         <v>38</v>
       </c>
@@ -3610,7 +3622,7 @@
       </c>
       <c r="G226" s="11"/>
     </row>
-    <row r="227" spans="2:9">
+    <row r="227" spans="2:9" ht="12.75">
       <c r="B227" s="8" t="s">
         <v>38</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="2:9">
+    <row r="228" spans="2:9" ht="12.75">
       <c r="B228" s="8" t="s">
         <v>38</v>
       </c>
@@ -3635,7 +3647,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="2:9">
+    <row r="229" spans="2:9" ht="12.75">
       <c r="B229" s="8" t="s">
         <v>38</v>
       </c>
@@ -3643,7 +3655,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="2:9">
+    <row r="230" spans="2:9" ht="12.75">
       <c r="B230" s="8" t="s">
         <v>38</v>
       </c>
@@ -3651,17 +3663,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="2:9">
+    <row r="231" spans="2:9" ht="12.75">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
     </row>
-    <row r="232" spans="2:9">
+    <row r="232" spans="2:9" ht="12.75">
       <c r="B232" s="6"/>
       <c r="C232" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="2:9">
+    <row r="233" spans="2:9" ht="12.75">
       <c r="B233" s="8" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="2:9">
+    <row r="234" spans="2:9" ht="12.75">
       <c r="B234" s="8" t="s">
         <v>22</v>
       </c>
@@ -3680,7 +3692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="2:9">
+    <row r="235" spans="2:9" ht="12.75">
       <c r="B235" s="8" t="s">
         <v>22</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="2:9">
+    <row r="236" spans="2:9" ht="12.75">
       <c r="B236" s="8" t="s">
         <v>22</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="2:9">
+    <row r="237" spans="2:9" ht="12.75">
       <c r="B237" s="8" t="s">
         <v>38</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:9">
+    <row r="238" spans="2:9" ht="12.75">
       <c r="B238" s="8" t="s">
         <v>38</v>
       </c>
@@ -3721,21 +3733,21 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="2:9">
+    <row r="239" spans="2:9" ht="12.75">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="2:9">
+    <row r="240" spans="2:9" ht="12.75">
       <c r="B240" s="6"/>
       <c r="C240" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" ht="12.75">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="2:7">
+    <row r="242" spans="2:7" ht="12.75">
       <c r="B242" s="8" t="s">
         <v>238</v>
       </c>
@@ -3743,7 +3755,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" ht="12.75">
       <c r="B243" s="8" t="s">
         <v>238</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" ht="12.75">
       <c r="B244" s="8" t="s">
         <v>238</v>
       </c>
@@ -3759,7 +3771,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:7" ht="12.75">
       <c r="B245" s="8" t="s">
         <v>238</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" ht="12.75">
       <c r="B246" s="8" t="s">
         <v>238</v>
       </c>
@@ -3775,7 +3787,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" ht="12.75">
       <c r="B247" s="8" t="s">
         <v>238</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" ht="12.75">
       <c r="B248" s="8" t="s">
         <v>238</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" ht="12.75">
       <c r="B249" s="8" t="s">
         <v>238</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" ht="12.75">
       <c r="B250" s="8" t="s">
         <v>238</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" ht="12.75">
       <c r="B251" s="8" t="s">
         <v>238</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" ht="12.75">
       <c r="B252" s="8" t="s">
         <v>38</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:7" ht="12.75">
       <c r="B253" s="8" t="s">
         <v>38</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="2:7">
+    <row r="254" spans="2:7" ht="12.75">
       <c r="B254" s="8" t="s">
         <v>38</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" ht="12.75">
       <c r="B255" s="8" t="s">
         <v>38</v>
       </c>
@@ -3853,17 +3865,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" ht="12.75">
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="2:9">
+    <row r="257" spans="2:9" ht="12.75">
       <c r="B257" s="6"/>
       <c r="C257" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="2:9">
+    <row r="258" spans="2:9" ht="12.75">
       <c r="B258" s="8" t="s">
         <v>11</v>
       </c>
@@ -3871,7 +3883,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="2:9">
+    <row r="259" spans="2:9" ht="12.75">
       <c r="B259" s="8" t="s">
         <v>11</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="2:9">
+    <row r="260" spans="2:9" ht="12.75">
       <c r="B260" s="8" t="s">
         <v>11</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="2:9">
+    <row r="261" spans="2:9" ht="12.75">
       <c r="B261" s="8" t="s">
         <v>11</v>
       </c>
@@ -3904,7 +3916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="2:9">
+    <row r="262" spans="2:9" ht="12.75">
       <c r="B262" s="8" t="s">
         <v>22</v>
       </c>
@@ -3912,7 +3924,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="2:9">
+    <row r="263" spans="2:9" ht="12.75">
       <c r="B263" s="8" t="s">
         <v>22</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="2:9">
+    <row r="264" spans="2:9" ht="12.75">
       <c r="B264" s="8" t="s">
         <v>22</v>
       </c>
@@ -3931,7 +3943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="2:9">
+    <row r="265" spans="2:9" ht="12.75">
       <c r="B265" s="8" t="s">
         <v>22</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="2:9">
+    <row r="266" spans="2:9" ht="12.75">
       <c r="B266" s="8" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="2:9">
+    <row r="267" spans="2:9" ht="12.75">
       <c r="B267" s="8" t="s">
         <v>22</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="2:9">
+    <row r="268" spans="2:9" ht="12.75">
       <c r="B268" s="8" t="s">
         <v>22</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="2:9">
+    <row r="269" spans="2:9" ht="12.75">
       <c r="B269" s="8" t="s">
         <v>22</v>
       </c>
@@ -3988,7 +4000,7 @@
       </c>
       <c r="H269" s="11"/>
     </row>
-    <row r="270" spans="2:9">
+    <row r="270" spans="2:9" ht="12.75">
       <c r="B270" s="8" t="s">
         <v>22</v>
       </c>
@@ -3999,7 +4011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="2:9">
+    <row r="271" spans="2:9" ht="12.75">
       <c r="B271" s="8" t="s">
         <v>22</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="2:9">
+    <row r="272" spans="2:9" ht="12.75">
       <c r="B272" s="8" t="s">
         <v>22</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="273" spans="2:9">
+    <row r="273" spans="2:9" ht="12.75">
       <c r="B273" s="8" t="s">
         <v>22</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="274" spans="2:9">
+    <row r="274" spans="2:9" ht="12.75">
       <c r="B274" s="8" t="s">
         <v>22</v>
       </c>
@@ -4034,7 +4046,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="275" spans="2:9">
+    <row r="275" spans="2:9" ht="12.75">
       <c r="B275" s="8" t="s">
         <v>22</v>
       </c>
@@ -4042,7 +4054,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="276" spans="2:9">
+    <row r="276" spans="2:9" ht="12.75">
       <c r="B276" s="8" t="s">
         <v>22</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="2:9">
+    <row r="277" spans="2:9" ht="12.75">
       <c r="B277" s="8" t="s">
         <v>38</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="278" spans="2:9">
+    <row r="278" spans="2:9" ht="12.75">
       <c r="B278" s="8" t="s">
         <v>38</v>
       </c>
@@ -4069,7 +4081,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="279" spans="2:9">
+    <row r="279" spans="2:9" ht="12.75">
       <c r="B279" s="8" t="s">
         <v>38</v>
       </c>
@@ -4080,7 +4092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="2:9">
+    <row r="280" spans="2:9" ht="12.75">
       <c r="B280" s="8" t="s">
         <v>38</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="281" spans="2:9">
+    <row r="281" spans="2:9" ht="12.75">
       <c r="B281" s="8" t="s">
         <v>38</v>
       </c>
@@ -4099,7 +4111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="2:9">
+    <row r="282" spans="2:9" ht="12.75">
       <c r="B282" s="8" t="s">
         <v>38</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="2:9">
+    <row r="283" spans="2:9" ht="12.75">
       <c r="B283" s="8" t="s">
         <v>38</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="2:9">
+    <row r="284" spans="2:9" ht="12.75">
       <c r="B284" s="8" t="s">
         <v>38</v>
       </c>
@@ -4132,7 +4144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="2:9">
+    <row r="285" spans="2:9" ht="12.75">
       <c r="B285" s="8" t="s">
         <v>38</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="2:9">
+    <row r="286" spans="2:9" ht="12.75">
       <c r="B286" s="8" t="s">
         <v>38</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="287" spans="2:9">
+    <row r="287" spans="2:9" ht="12.75">
       <c r="B287" s="8" t="s">
         <v>38</v>
       </c>
@@ -4159,20 +4171,20 @@
         <v>283</v>
       </c>
     </row>
-    <row r="288" spans="2:9">
+    <row r="288" spans="2:9" ht="12.75">
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
       <c r="I288" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="2:9">
+    <row r="289" spans="2:9" ht="12.75">
       <c r="B289" s="6"/>
       <c r="C289" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="290" spans="2:9">
+    <row r="290" spans="2:9" ht="12.75">
       <c r="B290" s="8" t="s">
         <v>22</v>
       </c>
@@ -4183,7 +4195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="2:9">
+    <row r="291" spans="2:9" ht="12.75">
       <c r="B291" s="8" t="s">
         <v>22</v>
       </c>
@@ -4191,7 +4203,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="292" spans="2:9">
+    <row r="292" spans="2:9" ht="12.75">
       <c r="B292" s="8" t="s">
         <v>22</v>
       </c>
@@ -4199,21 +4211,21 @@
         <v>286</v>
       </c>
     </row>
-    <row r="293" spans="2:9">
+    <row r="293" spans="2:9" ht="12.75">
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="2:9">
+    <row r="294" spans="2:9" ht="12.75">
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="2:9">
+    <row r="295" spans="2:9" ht="12.75">
       <c r="B295" s="6"/>
       <c r="C295" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="296" spans="2:9">
+    <row r="296" spans="2:9" ht="12.75">
       <c r="B296" s="8" t="s">
         <v>238</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="297" spans="2:9">
+    <row r="297" spans="2:9" ht="12.75">
       <c r="B297" s="8" t="s">
         <v>238</v>
       </c>
@@ -4229,7 +4241,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="298" spans="2:9">
+    <row r="298" spans="2:9" ht="12.75">
       <c r="B298" s="8" t="s">
         <v>238</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="2:9">
+    <row r="299" spans="2:9" ht="12.75">
       <c r="B299" s="8" t="s">
         <v>238</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="300" spans="2:9">
+    <row r="300" spans="2:9" ht="12.75">
       <c r="B300" s="8" t="s">
         <v>238</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="2:9">
+    <row r="301" spans="2:9" ht="12.75">
       <c r="B301" s="8" t="s">
         <v>238</v>
       </c>
@@ -4270,7 +4282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="2:9">
+    <row r="302" spans="2:9" ht="12.75">
       <c r="B302" s="8" t="s">
         <v>238</v>
       </c>
@@ -4281,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="2:9">
+    <row r="303" spans="2:9" ht="12.75">
       <c r="B303" s="8" t="s">
         <v>238</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="2:9">
+    <row r="304" spans="2:9" ht="12.75">
       <c r="B304" s="8" t="s">
         <v>238</v>
       </c>
@@ -4300,7 +4312,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="305" spans="2:9">
+    <row r="305" spans="2:9" ht="12.75">
       <c r="B305" s="8" t="s">
         <v>238</v>
       </c>
@@ -4308,24 +4320,24 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="2:9">
+    <row r="306" spans="2:9" ht="12.75">
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
       <c r="I306" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="2:9">
+    <row r="307" spans="2:9" ht="12.75">
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="2:9">
+    <row r="308" spans="2:9" ht="12.75">
       <c r="B308" s="6"/>
       <c r="C308" s="25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="309" spans="2:9">
+    <row r="309" spans="2:9" ht="12.75">
       <c r="B309" s="8" t="s">
         <v>22</v>
       </c>
@@ -4333,7 +4345,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310" spans="2:9">
+    <row r="310" spans="2:9" ht="12.75">
       <c r="B310" s="8" t="s">
         <v>22</v>
       </c>
@@ -4341,7 +4353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="311" spans="2:9">
+    <row r="311" spans="2:9" ht="12.75">
       <c r="B311" s="8" t="s">
         <v>22</v>
       </c>
@@ -4355,7 +4367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="2:9">
+    <row r="312" spans="2:9" ht="12.75">
       <c r="B312" s="8" t="s">
         <v>22</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="2:9">
+    <row r="313" spans="2:9" ht="12.75">
       <c r="B313" s="8" t="s">
         <v>22</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="2:9">
+    <row r="314" spans="2:9" ht="12.75">
       <c r="B314" s="8" t="s">
         <v>22</v>
       </c>
@@ -4379,7 +4391,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="315" spans="2:9">
+    <row r="315" spans="2:9" ht="12.75">
       <c r="B315" s="8" t="s">
         <v>22</v>
       </c>
@@ -4390,7 +4402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="2:9">
+    <row r="316" spans="2:9" ht="12.75">
       <c r="B316" s="8" t="s">
         <v>22</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="317" spans="2:9">
+    <row r="317" spans="2:9" ht="12.75">
       <c r="B317" s="8" t="s">
         <v>38</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="2:9">
+    <row r="318" spans="2:9" ht="12.75">
       <c r="B318" s="8" t="s">
         <v>38</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="2:9">
+    <row r="319" spans="2:9" ht="12.75">
       <c r="B319" s="8" t="s">
         <v>38</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="320" spans="2:9">
+    <row r="320" spans="2:9" ht="12.75">
       <c r="B320" s="8" t="s">
         <v>38</v>
       </c>
@@ -4439,7 +4451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="2:8">
+    <row r="321" spans="2:8" ht="12.75">
       <c r="B321" s="8" t="s">
         <v>38</v>
       </c>
@@ -4448,7 +4460,7 @@
       </c>
       <c r="H321" s="11"/>
     </row>
-    <row r="322" spans="2:8">
+    <row r="322" spans="2:8" ht="12.75">
       <c r="B322" s="8" t="s">
         <v>38</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="2:8">
+    <row r="323" spans="2:8" ht="12.75">
       <c r="B323" s="8" t="s">
         <v>38</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="2:8">
+    <row r="324" spans="2:8" ht="12.75">
       <c r="B324" s="8" t="s">
         <v>38</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="2:8">
+    <row r="325" spans="2:8" ht="12.75">
       <c r="B325" s="8" t="s">
         <v>38</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="326" spans="2:8">
+    <row r="326" spans="2:8" ht="12.75">
       <c r="B326" s="8" t="s">
         <v>38</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="327" spans="2:8">
+    <row r="327" spans="2:8" ht="12.75">
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
     </row>
@@ -4507,7 +4519,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="329" spans="2:8">
+    <row r="329" spans="2:8" ht="12.75">
       <c r="B329" s="8" t="s">
         <v>318</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="2:8">
+    <row r="330" spans="2:8" ht="12.75">
       <c r="B330" s="8" t="s">
         <v>318</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="2:8">
+    <row r="331" spans="2:8" ht="12.75">
       <c r="B331" s="8" t="s">
         <v>318</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="332" spans="2:8">
+    <row r="332" spans="2:8" ht="12.75">
       <c r="B332" s="8" t="s">
         <v>318</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="2:8">
+    <row r="333" spans="2:8" ht="12.75">
       <c r="E333" s="11" t="s">
         <v>13</v>
       </c>
